--- a/산출물/MyWordbook_요구사항_명세서_v0.1.xlsx
+++ b/산출물/MyWordbook_요구사항_명세서_v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\myWordbook\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B509CD-D13A-4055-A5DC-E69E9E0ED45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3712A22-341F-4608-BBF7-E2152E5EB9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,6 +47,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -68,6 +69,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1208,7 +1210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,6 +1280,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1426,13 +1435,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,25 +1456,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1702,7 +1711,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1729,22 +1738,22 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1762,10 +1771,10 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1785,10 +1794,10 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1811,8 +1820,8 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
         <v>15</v>
@@ -2042,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="6"/>
@@ -2067,7 +2076,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="6"/>
@@ -2089,7 +2098,7 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
         <v>47</v>
@@ -2109,7 +2118,7 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>52</v>
@@ -2131,7 +2140,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="6"/>
@@ -2151,7 +2160,7 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B23" s="17"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
@@ -2169,7 +2178,7 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B24" s="17"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
@@ -2189,7 +2198,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B25" s="17"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
@@ -2209,7 +2218,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B26" s="17"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
@@ -2227,7 +2236,7 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B27" s="17"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
@@ -2245,7 +2254,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B28" s="17"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
@@ -2263,7 +2272,7 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B29" s="17"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
@@ -2281,7 +2290,7 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B30" s="17"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
@@ -2299,7 +2308,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
@@ -2319,7 +2328,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="6"/>
@@ -2339,7 +2348,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
@@ -11242,16 +11251,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G20 G22:G920">
@@ -11299,22 +11308,22 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11332,10 +11341,10 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11355,13 +11364,13 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -11379,9 +11388,9 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="9" t="s">
         <v>93</v>
       </c>
@@ -11397,9 +11406,9 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="6" t="s">
         <v>95</v>
       </c>
@@ -11415,7 +11424,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="23" t="s">
         <v>97</v>
       </c>
@@ -11431,7 +11440,7 @@
       <c r="G7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -11439,9 +11448,9 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="9" t="s">
         <v>101</v>
       </c>
@@ -11451,15 +11460,15 @@
       <c r="G8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="9" t="s">
         <v>103</v>
       </c>
@@ -11475,9 +11484,9 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="9" t="s">
         <v>105</v>
       </c>
@@ -11495,8 +11504,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="12"/>
       <c r="E11" s="9" t="s">
         <v>108</v>
@@ -11515,8 +11524,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="12"/>
       <c r="E12" s="9" t="s">
         <v>111</v>
@@ -11533,7 +11542,7 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="23" t="s">
         <v>113</v>
       </c>
@@ -11549,7 +11558,7 @@
       <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="26" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="10" t="s">
@@ -11557,9 +11566,9 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9" t="s">
         <v>101</v>
       </c>
@@ -11569,15 +11578,15 @@
       <c r="G14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="9" t="s">
         <v>103</v>
       </c>
@@ -11593,8 +11602,8 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="13" t="s">
         <v>117</v>
       </c>
@@ -11613,8 +11622,8 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
         <v>120</v>
@@ -11631,11 +11640,11 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="19" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -11655,9 +11664,9 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="9" t="s">
         <v>126</v>
       </c>
@@ -11675,9 +11684,9 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="6" t="s">
         <v>129</v>
       </c>
@@ -11695,9 +11704,9 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6" t="s">
         <v>132</v>
       </c>
@@ -11715,8 +11724,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="5" t="s">
         <v>135</v>
       </c>
@@ -11735,8 +11744,8 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="5" t="s">
         <v>138</v>
       </c>
@@ -11755,7 +11764,7 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B24" s="17"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="23" t="s">
         <v>141</v>
       </c>
@@ -11779,9 +11788,9 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="9" t="s">
         <v>144</v>
       </c>
@@ -11797,9 +11806,9 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="9" t="s">
         <v>146</v>
       </c>
@@ -11815,7 +11824,7 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B27" s="17"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="23" t="s">
         <v>148</v>
       </c>
@@ -11837,9 +11846,9 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="9" t="s">
         <v>151</v>
       </c>
@@ -11855,9 +11864,9 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="6" t="s">
         <v>153</v>
       </c>
@@ -11873,7 +11882,7 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B30" s="17"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="23" t="s">
         <v>155</v>
       </c>
@@ -11889,7 +11898,7 @@
       <c r="G30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="26" t="s">
         <v>156</v>
       </c>
       <c r="I30" s="7" t="s">
@@ -11897,9 +11906,9 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="9" t="s">
         <v>101</v>
       </c>
@@ -11909,15 +11918,15 @@
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="25" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="27" t="s">
         <v>159</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -11937,9 +11946,9 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="9" t="s">
         <v>163</v>
       </c>
@@ -11957,9 +11966,9 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="9" t="s">
         <v>166</v>
       </c>
@@ -11977,8 +11986,8 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="9" t="s">
         <v>169</v>
       </c>
@@ -11999,7 +12008,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="19" t="s">
         <v>173</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -12017,7 +12026,7 @@
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="26" t="s">
         <v>175</v>
       </c>
       <c r="I36" s="7" t="s">
@@ -12025,9 +12034,9 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="13" t="s">
         <v>101</v>
       </c>
@@ -12037,14 +12046,14 @@
       <c r="G37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="23" t="s">
         <v>178</v>
       </c>
@@ -12063,9 +12072,9 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="9" t="s">
         <v>181</v>
       </c>
@@ -12081,9 +12090,9 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="9" t="s">
         <v>183</v>
       </c>
@@ -12099,8 +12108,8 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="23" t="s">
         <v>185</v>
       </c>
@@ -12119,9 +12128,9 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="9" t="s">
         <v>183</v>
       </c>
@@ -12137,7 +12146,7 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B43" s="17"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="6" t="s">
         <v>189</v>
       </c>
@@ -12149,7 +12158,7 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="6" t="s">
         <v>190</v>
       </c>
@@ -12161,7 +12170,7 @@
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="19" t="s">
         <v>191</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -12175,11 +12184,11 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B46" s="17"/>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="19" t="s">
         <v>98</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -12191,7 +12200,7 @@
       <c r="G46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>194</v>
       </c>
       <c r="I46" s="7" t="s">
@@ -12199,9 +12208,9 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="9" t="s">
         <v>101</v>
       </c>
@@ -12211,15 +12220,15 @@
       <c r="G47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="6" t="s">
         <v>197</v>
       </c>
@@ -12235,8 +12244,8 @@
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="9" t="s">
         <v>178</v>
       </c>
@@ -12255,8 +12264,8 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="9" t="s">
         <v>185</v>
       </c>
@@ -12273,13 +12282,13 @@
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="19" t="s">
         <v>98</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -12291,7 +12300,7 @@
       <c r="G51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="25" t="s">
         <v>175</v>
       </c>
       <c r="I51" s="7" t="s">
@@ -12299,9 +12308,9 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="9" t="s">
         <v>101</v>
       </c>
@@ -12311,15 +12320,15 @@
       <c r="G52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="18"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="6" t="s">
         <v>197</v>
       </c>
@@ -12335,9 +12344,9 @@
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="6" t="s">
         <v>206</v>
       </c>
@@ -12353,8 +12362,8 @@
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="9" t="s">
         <v>178</v>
       </c>
@@ -12373,8 +12382,8 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="9" t="s">
         <v>185</v>
       </c>
@@ -12391,7 +12400,7 @@
       <c r="I56" s="7"/>
     </row>
     <row r="57" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B57" s="17"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="6" t="s">
         <v>211</v>
       </c>
@@ -12403,7 +12412,7 @@
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B58" s="18"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="6" t="s">
         <v>212</v>
       </c>
@@ -12415,7 +12424,7 @@
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="19" t="s">
         <v>213</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -12429,7 +12438,7 @@
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B60" s="18"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="6" t="s">
         <v>215</v>
       </c>
@@ -12441,7 +12450,7 @@
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="19" t="s">
         <v>216</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -12467,9 +12476,9 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="9" t="s">
         <v>219</v>
       </c>
@@ -12485,8 +12494,8 @@
       <c r="I62" s="15"/>
     </row>
     <row r="63" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="13" t="s">
         <v>221</v>
       </c>
@@ -12503,8 +12512,8 @@
       <c r="I63" s="15"/>
     </row>
     <row r="64" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="23" t="s">
         <v>185</v>
       </c>
@@ -12521,9 +12530,9 @@
       <c r="I64" s="15"/>
     </row>
     <row r="65" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="9" t="s">
         <v>186</v>
       </c>
@@ -12539,8 +12548,8 @@
       <c r="I65" s="15"/>
     </row>
     <row r="66" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="23" t="s">
         <v>223</v>
       </c>
@@ -12559,9 +12568,9 @@
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="9" t="s">
         <v>225</v>
       </c>
@@ -12577,7 +12586,7 @@
       <c r="I67" s="7"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B68" s="17"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="6" t="s">
         <v>227</v>
       </c>
@@ -12593,8 +12602,8 @@
       <c r="I68" s="7"/>
     </row>
     <row r="69" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B69" s="17"/>
-      <c r="C69" s="16" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -12611,8 +12620,8 @@
       <c r="I69" s="7"/>
     </row>
     <row r="70" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="6" t="s">
         <v>230</v>
       </c>
@@ -12631,11 +12640,11 @@
       <c r="I70" s="7"/>
     </row>
     <row r="71" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B71" s="17"/>
-      <c r="C71" s="16" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="19" t="s">
         <v>98</v>
       </c>
       <c r="E71" s="6" t="s">
@@ -12653,9 +12662,9 @@
       <c r="I71" s="7"/>
     </row>
     <row r="72" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="6" t="s">
         <v>103</v>
       </c>
@@ -12671,9 +12680,9 @@
       <c r="I72" s="7"/>
     </row>
     <row r="73" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="6" t="s">
         <v>237</v>
       </c>
@@ -12689,8 +12698,8 @@
       <c r="I73" s="7"/>
     </row>
     <row r="74" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="5" t="s">
         <v>239</v>
       </c>
@@ -12709,13 +12718,13 @@
       <c r="I74" s="7"/>
     </row>
     <row r="75" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="24" t="s">
         <v>242</v>
       </c>
       <c r="E75" s="9" t="s">
@@ -12735,9 +12744,9 @@
       </c>
     </row>
     <row r="76" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="9" t="s">
         <v>243</v>
       </c>
@@ -12755,8 +12764,8 @@
       </c>
     </row>
     <row r="77" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="6" t="s">
         <v>246</v>
       </c>
@@ -12777,8 +12786,8 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="6" t="s">
         <v>249</v>
       </c>
@@ -12799,8 +12808,8 @@
       </c>
     </row>
     <row r="79" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="6"/>
       <c r="E79" s="9" t="s">
         <v>251</v>
@@ -12819,8 +12828,8 @@
       </c>
     </row>
     <row r="80" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="6"/>
       <c r="E80" s="9" t="s">
         <v>15</v>
@@ -12839,8 +12848,8 @@
       </c>
     </row>
     <row r="81" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6" t="s">
         <v>255</v>
@@ -12857,11 +12866,11 @@
       <c r="I81" s="7"/>
     </row>
     <row r="82" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B82" s="17"/>
-      <c r="C82" s="16" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="19" t="s">
         <v>257</v>
       </c>
       <c r="E82" s="9" t="s">
@@ -12879,9 +12888,9 @@
       <c r="I82" s="7"/>
     </row>
     <row r="83" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="9" t="s">
         <v>259</v>
       </c>
@@ -12899,9 +12908,9 @@
       </c>
     </row>
     <row r="84" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="6" t="s">
         <v>262</v>
       </c>
@@ -12917,9 +12926,9 @@
       <c r="I84" s="7"/>
     </row>
     <row r="85" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="6" t="s">
         <v>264</v>
       </c>
@@ -12935,9 +12944,9 @@
       <c r="I85" s="7"/>
     </row>
     <row r="86" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="6" t="s">
         <v>266</v>
       </c>
@@ -12953,9 +12962,9 @@
       <c r="I86" s="7"/>
     </row>
     <row r="87" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="18"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="6" t="s">
         <v>268</v>
       </c>
@@ -12971,8 +12980,8 @@
       <c r="I87" s="7"/>
     </row>
     <row r="88" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="6"/>
       <c r="E88" s="5" t="s">
         <v>270</v>
@@ -12991,8 +13000,8 @@
       </c>
     </row>
     <row r="89" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="6"/>
       <c r="E89" s="13" t="s">
         <v>272</v>
@@ -13009,8 +13018,8 @@
       <c r="I89" s="7"/>
     </row>
     <row r="90" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="17"/>
       <c r="D90" s="6" t="s">
         <v>274</v>
       </c>
@@ -13027,11 +13036,11 @@
       <c r="I90" s="7"/>
     </row>
     <row r="91" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B91" s="17"/>
-      <c r="C91" s="16" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="19" t="s">
         <v>276</v>
       </c>
       <c r="E91" s="9" t="s">
@@ -13051,9 +13060,9 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="9" t="s">
         <v>280</v>
       </c>
@@ -13071,7 +13080,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C93" s="6"/>
@@ -13093,9 +13102,9 @@
       <c r="I93" s="15"/>
     </row>
     <row r="94" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B94" s="17"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="17"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="9" t="s">
         <v>285</v>
       </c>
@@ -13111,9 +13120,9 @@
       <c r="I94" s="15"/>
     </row>
     <row r="95" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B95" s="17"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="18"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="9" t="s">
         <v>287</v>
       </c>
@@ -13129,7 +13138,7 @@
       <c r="I95" s="15"/>
     </row>
     <row r="96" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B96" s="17"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="6"/>
       <c r="D96" s="9" t="s">
         <v>52</v>
@@ -13149,9 +13158,9 @@
       <c r="I96" s="7"/>
     </row>
     <row r="97" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B97" s="17"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="19" t="s">
         <v>290</v>
       </c>
       <c r="E97" s="6" t="s">
@@ -13169,9 +13178,9 @@
       <c r="I97" s="7"/>
     </row>
     <row r="98" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B98" s="17"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="17"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="6" t="s">
         <v>293</v>
       </c>
@@ -13189,9 +13198,9 @@
       </c>
     </row>
     <row r="99" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B99" s="17"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="18"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="6" t="s">
         <v>296</v>
       </c>
@@ -13207,7 +13216,7 @@
       <c r="I99" s="7"/>
     </row>
     <row r="100" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B100" s="17"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="6"/>
       <c r="D100" s="9" t="s">
         <v>298</v>
@@ -13227,7 +13236,7 @@
       <c r="I100" s="7"/>
     </row>
     <row r="101" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="6"/>
       <c r="D101" s="9" t="s">
         <v>301</v>
@@ -13249,7 +13258,7 @@
       </c>
     </row>
     <row r="102" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="6"/>
@@ -13269,7 +13278,7 @@
       <c r="I102" s="15"/>
     </row>
     <row r="103" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B103" s="17"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="9" t="s">
@@ -13287,7 +13296,7 @@
       <c r="I103" s="15"/>
     </row>
     <row r="104" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B104" s="17"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="9" t="s">
@@ -13307,7 +13316,7 @@
       </c>
     </row>
     <row r="105" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B105" s="17"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="9" t="s">
@@ -13327,7 +13336,7 @@
       </c>
     </row>
     <row r="106" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B106" s="17"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="9" t="s">
@@ -13345,7 +13354,7 @@
       <c r="I106" s="15"/>
     </row>
     <row r="107" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B107" s="17"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
@@ -13363,7 +13372,7 @@
       <c r="I107" s="7"/>
     </row>
     <row r="108" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B108" s="17"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="9" t="s">
@@ -13381,7 +13390,7 @@
       <c r="I108" s="15"/>
     </row>
     <row r="109" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B109" s="17"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
@@ -13399,7 +13408,7 @@
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B110" s="17"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="9" t="s">
@@ -13417,7 +13426,7 @@
       <c r="I110" s="15"/>
     </row>
     <row r="111" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="9" t="s">
@@ -13457,7 +13466,7 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="9" t="s">
@@ -22360,44 +22369,11 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="B61:B74"/>
-    <mergeCell ref="B75:B92"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B4:B35"/>
@@ -22414,11 +22390,44 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="B61:B74"/>
+    <mergeCell ref="B75:B92"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G23 F24:G26 G27:G30 G33:G82 G89:G95 G97:G1000">
